--- a/TP1/tablas/4.xlsx
+++ b/TP1/tablas/4.xlsx
@@ -469,17 +469,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>110101001011001001011110000100</t>
+          <t>111110000001011000010101000100</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6903061920225433</v>
+        <v>0.9391295160492703</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00786225007630866</v>
+        <v>0.00487892865040852</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2390041579635733</v>
+        <v>0.2967567476953556</v>
       </c>
     </row>
     <row r="3">
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>110101001011001001011110000100</t>
+          <t>111110000100100000001111101101</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6903061920225433</v>
+        <v>0.9406081878374415</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06102092693508689</v>
+        <v>0.3014185174356079</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4143762811161191</v>
+        <v>0.5828704773098387</v>
       </c>
     </row>
     <row r="4">
@@ -513,17 +513,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>110101001011001001011110000100</t>
+          <t>111110000100100000001111101101</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6903061920225433</v>
+        <v>0.9406081878374415</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2926965083254615</v>
+        <v>0.5999076720498344</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6401358448411429</v>
+        <v>0.9059385340677079</v>
       </c>
     </row>
     <row r="5">
@@ -535,17 +535,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>110101001011001001011110000100</t>
+          <t>111110000100100000001111101101</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6903061920225433</v>
+        <v>0.9406081878374415</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6903058206051874</v>
+        <v>0.9391307452990107</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6903061548808077</v>
+        <v>0.9404522517087889</v>
       </c>
     </row>
     <row r="6">
@@ -557,17 +557,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>110101001011001001011110100100</t>
+          <t>111110000100100000001111101101</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.690306241544865</v>
+        <v>0.9406081878374415</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6903061920225433</v>
+        <v>0.9406081137715335</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6903061969747755</v>
+        <v>0.9406081804308506</v>
       </c>
     </row>
     <row r="7">
@@ -579,17 +579,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>110101001011001001011110100100</t>
+          <t>111110000100100000001111101101</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.690306241544865</v>
+        <v>0.9406081878374415</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6903061920225433</v>
+        <v>0.9406081878374415</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6903062167837042</v>
+        <v>0.9406081878374414</v>
       </c>
     </row>
     <row r="8">
@@ -601,17 +601,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>110101001011001001011110100100</t>
+          <t>111110000100100000001111101101</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.690306241544865</v>
+        <v>0.9406081878374415</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6903061920225433</v>
+        <v>0.9406081878374415</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6903062365926328</v>
+        <v>0.9406081878374414</v>
       </c>
     </row>
     <row r="9">
@@ -623,17 +623,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>110101001011001001011110100100</t>
+          <t>111110000100100000001111101101</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.690306241544865</v>
+        <v>0.9406081878374415</v>
       </c>
       <c r="E9" t="n">
-        <v>0.690306241544865</v>
+        <v>0.9406081878374415</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6903062415448649</v>
+        <v>0.9406081878374414</v>
       </c>
     </row>
     <row r="10">
@@ -645,17 +645,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>110101001011001001011110110100</t>
+          <t>111110000100100000001111101101</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.9406081878374415</v>
       </c>
       <c r="E10" t="n">
-        <v>0.690306241544865</v>
+        <v>0.9406081878374415</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6903062440209811</v>
+        <v>0.9406081878374414</v>
       </c>
     </row>
     <row r="11">
@@ -667,17 +667,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>110101001011001001011110110100</t>
+          <t>111110000100100000001111101101</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.9406081878374415</v>
       </c>
       <c r="E11" t="n">
-        <v>0.690306241544865</v>
+        <v>0.9406081878374415</v>
       </c>
       <c r="F11" t="n">
-        <v>0.690306258877678</v>
+        <v>0.9406081878374414</v>
       </c>
     </row>
     <row r="12">
@@ -689,17 +689,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>110101001011001001011110110100</t>
+          <t>111110000100100000001111101101</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.9406081878374415</v>
       </c>
       <c r="E12" t="n">
-        <v>0.690306241544865</v>
+        <v>0.9406081878374415</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6903062638299102</v>
+        <v>0.9406081878374414</v>
       </c>
     </row>
     <row r="13">
@@ -711,17 +711,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>110101001011001001011110110100</t>
+          <t>111110000110100000001111101101</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.9415555449773083</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1094595495056074</v>
+        <v>0.9406077253771852</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6321810318990826</v>
+        <v>0.9407028773054025</v>
       </c>
     </row>
     <row r="14">
@@ -733,17 +733,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>110101001011001001011110110100</t>
+          <t>111110000110100000011111101101</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.9415573957507929</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.2207586177049297</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.8634143462895574</v>
       </c>
     </row>
     <row r="15">
@@ -755,17 +755,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>110101001011001001011110110100</t>
+          <t>111110000110100000011111101101</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.9415573957507929</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6902999274631773</v>
+        <v>0.9415555449773083</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6903056324217415</v>
+        <v>0.9415562852867023</v>
       </c>
     </row>
     <row r="16">
@@ -777,17 +777,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>110101001011001001011110110100</t>
+          <t>111110000110100000011111101101</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.9415573957507929</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.9415573957507929</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.9415573957507929</v>
       </c>
     </row>
     <row r="17">
@@ -799,17 +799,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>110101001011001001011110110100</t>
+          <t>111110000110100000011111101101</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.9415573957507929</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.9415572800773967</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.9415573841834532</v>
       </c>
     </row>
     <row r="18">
@@ -821,17 +821,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>110101001011001001011110110100</t>
+          <t>111110000110100000011111101101</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.9415573957507929</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6902555563781408</v>
+        <v>0.9415573957507929</v>
       </c>
       <c r="F18" t="n">
-        <v>0.690301195313238</v>
+        <v>0.9415573957507929</v>
       </c>
     </row>
     <row r="19">
@@ -843,17 +843,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>110101001011011001011110110100</t>
+          <t>111110000110100000011111101101</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.6904076917497329</v>
+        <v>0.9415573957507929</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.9415573957507929</v>
       </c>
       <c r="F19" t="n">
-        <v>0.690316408850397</v>
+        <v>0.9415573957507929</v>
       </c>
     </row>
     <row r="20">
@@ -865,17 +865,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>110101001011011001011110110100</t>
+          <t>111110000110100000011111101101</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.6904076917497329</v>
+        <v>0.9415573957507929</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6903062663060264</v>
+        <v>0.9415573957507929</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6903874066609916</v>
+        <v>0.9415573957507929</v>
       </c>
     </row>
     <row r="21">
@@ -887,17 +887,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>110101001011011001011110110100</t>
+          <t>111110000110100000011111101101</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.6904076917497329</v>
+        <v>0.9415573957507929</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6871657730391055</v>
+        <v>0.941557381291618</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6900834998786701</v>
+        <v>0.9415573943048756</v>
       </c>
     </row>
   </sheetData>
